--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_023.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_023.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295027EK2.06) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295025EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RCIC operation </t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AA1.07) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Nuclear boiler instrumentation system </t>
-  </si>
-  <si>
-    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
-  </si>
-  <si>
-    <t>(295006AK2.02) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295030EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295037EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295024EK2.12) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295005AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Recirculation pump downshift/trip</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA1.03) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel handling equipment</t>
-  </si>
-  <si>
-    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
-  </si>
-  <si>
-    <t>(295004AK2.03) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295012AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Increased drywell cooling</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295009AA1.02) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control</t>
-  </si>
-  <si>
-    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
-  </si>
-  <si>
-    <t>(295007AK2.01) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295022AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(212000K4.13) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Underfrequency, overvoltage, and undervoltage protection</t>
-  </si>
-  <si>
-    <t>(262001K3.05) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Qualified offsite power sources</t>
-  </si>
-  <si>
-    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(215005A4.05) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
-  </si>
-  <si>
-    <t>(264000A3.06) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Cooling water system operation</t>
-  </si>
-  <si>
-    <t>(259002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Water level measurement</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Valve position</t>
-  </si>
-  <si>
-    <t>(209001K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(223002A2.01) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) AC electrical distribution failures</t>
-  </si>
-  <si>
-    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(209002K4.10) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Uniform core spray coverage</t>
-  </si>
-  <si>
-    <t>(239002K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor overpressurization</t>
-  </si>
-  <si>
-    <t>(261000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Reactor protection system</t>
-  </si>
-  <si>
-    <t>(263000A4.05) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Meters, dials, recorders, alarms, and indicating lights</t>
-  </si>
-  <si>
-    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
-  </si>
-  <si>
-    <t>(217000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (291002K1.20) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Neutron monitoring indication units</t>
-  </si>
-  <si>
-    <t>(215004A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(400000K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(203000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loop selection logic failure</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(212000K4.08) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SCRAM reset time delay</t>
-  </si>
-  <si>
-    <t>(262001K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(262002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Motor generator</t>
-  </si>
-  <si>
-    <t>(215005A4.03) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) APRM back panel switches, meters, and indicating lights</t>
-  </si>
-  <si>
-    <t>(239001A2.05) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line high radiation</t>
-  </si>
-  <si>
-    <t>(290001K2.02) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) HVAC isolation dampers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(290002K4.01) Knowledge of (SF4 RVI) REACTOR VESSEL INTERNALS design features and/or interlocks that provide for the following: (CFR: 41.7) 2/3 core coverage following a design-basis LOCA </t>
-  </si>
-  <si>
-    <t>(216000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ADS</t>
-  </si>
-  <si>
-    <t>(259001K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Redundant reactivity control</t>
-  </si>
-  <si>
-    <t>(268000A4.02) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment sump pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201005A3.03) Ability to monitor automatic operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.7 / 45.7) Verification of proper functioning/operability </t>
-  </si>
-  <si>
-    <t>(233000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.5 / 45.3) Abnormal fuel pool temperatures</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(226001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) Suppression pool temperature (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(215001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 TIP) TRAVERSING IN CORE PROBE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nitrogen system (BWR 2, 3, 4, 5)</t>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(295026EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Pump NPSH</t>
+  </si>
+  <si>
+    <t>(295004AA1.02) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) Systems necessary to ensure safe plant shutdown</t>
+  </si>
+  <si>
+    <t>(295005AK2.13) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor power response</t>
+  </si>
+  <si>
+    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
+  </si>
+  <si>
+    <t>(295018AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Reactor power reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
+  </si>
+  <si>
+    <t>(295031EK2.12) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Alternate control rod insertion methods</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295019AK2.08) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Plant ventilation</t>
+  </si>
+  <si>
+    <t>(295006AA1.01) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295024EK2.07) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
+  </si>
+  <si>
+    <t>(295033EK2.04) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295007AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
+  </si>
+  <si>
+    <t>(295029EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment water level</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(295036EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Affected systems so as to isolate damaged portions</t>
+  </si>
+  <si>
+    <t>(215005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(211000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) CRD system</t>
+  </si>
+  <si>
+    <t>(215003K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) High or upscale</t>
+  </si>
+  <si>
+    <t>(215004K4.07) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS channel bypass</t>
+  </si>
+  <si>
+    <t>(209001A4.07) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
+  </si>
+  <si>
+    <t>(217000K2.03) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) RCIC flow controller</t>
+  </si>
+  <si>
+    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
+  </si>
+  <si>
+    <t>(259002K3.09) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(262001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
+  </si>
+  <si>
+    <t>(261000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Secondary containment differential pressure</t>
+  </si>
+  <si>
+    <t>(400000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(205000K4.07) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) SDC minimum flow</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(264000A3.01) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Starting/loading </t>
+  </si>
+  <si>
+    <t>(203000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
+  </si>
+  <si>
+    <t>(300000K6.16) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Backwashing condensate filter/demins</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291005K1.06) MOTORS AND GENERATORS (CFR: 41.7) Reason for limiting the number of motor starts in a given time period</t>
+  </si>
+  <si>
+    <t>(209002A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic system initiation</t>
+  </si>
+  <si>
+    <t>(215005A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Reactor power indication</t>
+  </si>
+  <si>
+    <t>(211000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel internals</t>
+  </si>
+  <si>
+    <t>(215003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Detector operation</t>
+  </si>
+  <si>
+    <t>(215004K4.06) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) IRM/SRMS interlock</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(202001A2.05) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent recirculation flow increase (reference potential)</t>
+  </si>
+  <si>
+    <t>(226001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(239001K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Instrument air systems</t>
+  </si>
+  <si>
+    <t>(216000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Vessel level measurement</t>
+  </si>
+  <si>
+    <t>(234000K4.07) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Hoist overload or underload protection</t>
+  </si>
+  <si>
+    <t>(290003A4.01) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiate/reset system</t>
+  </si>
+  <si>
+    <t>(201003K4.07) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Maintaining the control rod at a given position</t>
+  </si>
+  <si>
+    <t>(510001A3.01) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts/stops</t>
+  </si>
+  <si>
+    <t>(268000K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 RW) RADWASTE SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) RWCU system</t>
+  </si>
+  <si>
+    <t>(286000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Diesel-driven fire pump</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
+  </si>
+  <si>
+    <t>(293009K1.38) CORE THERMAL LIMITS (CFR: 41.14) (PRECONDITIONING INTERIM OPERATING MANAGEMENT RECOMMENDATIONS (PCIOMR)) State the items measured for each of the three core thermal limits</t>
+  </si>
+  <si>
+    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Ventilation alignment necessary to secure affected area</t>
+  </si>
+  <si>
+    <t>(295008AA2.01) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AA2.01) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(209001A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC failures</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(212000A2.04) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Nuclear instrument system failure</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262001A2.01) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine/generator trip</t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(245000A2.02) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil</t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
   </si>
   <si>
     <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
   </si>
   <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.12) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(292004K1.11) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of void coefficient from changes in the following: --Core void fraction</t>
-  </si>
-  <si>
-    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
-  </si>
-  <si>
-    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
-  </si>
-  <si>
-    <t>(293008K1.10) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Describe critical heat flux</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295013AA2.03) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Open/leaking Safety relief valve</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(211000A2.06) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve position </t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(202002A2.04) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation pump speed/loop flow mismatch</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(219000A2.07) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K1</t>
+    <t>G</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K5</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295012</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295022</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>217000</t>
   </si>
   <si>
     <t>212000</t>
   </si>
   <si>
+    <t>259002</t>
+  </si>
+  <si>
     <t>262001</t>
   </si>
   <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
     <t>262002</t>
   </si>
   <si>
-    <t>215005</t>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>239002</t>
   </si>
   <si>
     <t>264000</t>
   </si>
   <si>
-    <t>259002</t>
+    <t>203000</t>
   </si>
   <si>
     <t>300000</t>
   </si>
   <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
     <t>223002</t>
   </si>
   <si>
-    <t>205000</t>
-  </si>
-  <si>
     <t>209002</t>
   </si>
   <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215003</t>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>226001</t>
   </si>
   <si>
     <t>239001</t>
   </si>
   <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
     <t>290001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>219000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>110</v>
@@ -1565,7 +1565,7 @@
         <v>3.6</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1650,7 +1650,7 @@
         <v>3.1</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D46" t="s">
         <v>110</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1956,7 +1956,7 @@
         <v>3.1</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D63" t="s">
         <v>110</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
